--- a/Potential Companies.xlsx
+++ b/Potential Companies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Company</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Stratasys</t>
+  </si>
+  <si>
+    <t>Nestle</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>https://jobs.ericsson.com/job/G%C3%B6teborg-Master-Thesis-Program-Business-&amp;-Operations-G%C3%B6teborg/292595000/?from=email&amp;refid=1036360900&amp;utm_source=J2WEmail&amp;source=2&amp;eid=519-201543090343-2232102300&amp;locale=en_US</t>
   </si>
 </sst>
 </file>
@@ -387,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +434,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
@@ -430,10 +445,33 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Potential Companies.xlsx
+++ b/Potential Companies.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26122"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Company</t>
   </si>
@@ -61,16 +66,38 @@
   </si>
   <si>
     <t>https://jobs.ericsson.com/job/G%C3%B6teborg-Master-Thesis-Program-Business-&amp;-Operations-G%C3%B6teborg/292595000/?from=email&amp;refid=1036360900&amp;utm_source=J2WEmail&amp;source=2&amp;eid=519-201543090343-2232102300&amp;locale=en_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almi </t>
+  </si>
+  <si>
+    <t>SCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,13 +120,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -441,7 +472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -452,7 +483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -463,7 +494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -474,8 +505,27 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -485,9 +535,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -497,8 +552,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Potential Companies.xlsx
+++ b/Potential Companies.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26122"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Company</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>SCA</t>
+  </si>
+  <si>
+    <t>https://attachment.fbsbx.com/file_download.php?id=1708897019353263&amp;eid=ASvpBmKNtwh0lEBezg8zjp-INlCUCrH7uR3zg52P2yz32j-BhwGfj4FpKaHnSJmEkDI&amp;inline=1&amp;ext=1447767384&amp;hash=AStisOV6Aeoz5SCe</t>
+  </si>
+  <si>
+    <t>Diakrit</t>
+  </si>
+  <si>
+    <t>Reail Estate</t>
+  </si>
+  <si>
+    <t>Market Research</t>
+  </si>
+  <si>
+    <t>http://www.cs.handels.gu.se/Portal/Career/PlacementAd/ShowPlacementAd.aspx?PlacementAdId=2313&amp;ExternalAd=0</t>
   </si>
 </sst>
 </file>
@@ -430,15 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -472,7 +490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -482,8 +500,11 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -494,7 +515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -505,17 +526,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -552,7 +587,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Potential Companies.xlsx
+++ b/Potential Companies.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Company</t>
   </si>
@@ -87,6 +87,69 @@
   </si>
   <si>
     <t>http://www.cs.handels.gu.se/Portal/Career/PlacementAd/ShowPlacementAd.aspx?PlacementAdId=2313&amp;ExternalAd=0</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>CV, CL</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>1 page about the problem, university grades + CV collated</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>need to reach out to them</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>Istone</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Size of company</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>David + Jacob</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>20.11.2015</t>
+  </si>
+  <si>
+    <t>24.11.2015</t>
   </si>
 </sst>
 </file>
@@ -445,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F10" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +519,7 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,10 +533,25 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -487,10 +565,22 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -503,8 +593,23 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -514,43 +619,141 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E12" t="s">
         <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Potential Companies.xlsx
+++ b/Potential Companies.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Company</t>
   </si>
@@ -150,12 +150,21 @@
   </si>
   <si>
     <t>24.11.2015</t>
+  </si>
+  <si>
+    <t>http://www.sp.se/en/workatsp/students/masterthesis/Sidor/STRATEGIESANDMETHODSFORSUSTAINABLEINNOVATIONANDTRANSFORMATION.aspx</t>
+  </si>
+  <si>
+    <t>What have we done?</t>
+  </si>
+  <si>
+    <t>Sent mail, waiting for answer.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,6 +226,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -264,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,18 +520,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F9:F10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,8 +563,11 @@
       <c r="K1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -580,7 +596,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -609,7 +625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -629,7 +645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -649,13 +665,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" t="s">
         <v>34</v>
       </c>
@@ -665,8 +684,11 @@
       <c r="K6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -686,7 +708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -703,7 +725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -717,7 +739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -725,7 +747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -738,8 +760,11 @@
       <c r="J11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>

--- a/Potential Companies.xlsx
+++ b/Potential Companies.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26122"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Company</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Process</t>
   </si>
   <si>
-    <t>Progress</t>
-  </si>
-  <si>
     <t>KnowIT</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Sigma</t>
   </si>
   <si>
-    <t>need to reach out to them</t>
-  </si>
-  <si>
     <t>Accenture</t>
   </si>
   <si>
@@ -159,12 +153,33 @@
   </si>
   <si>
     <t>Sent mail, waiting for answer.</t>
+  </si>
+  <si>
+    <t>Applied</t>
+  </si>
+  <si>
+    <t>Machine learning for assessing information quality</t>
+  </si>
+  <si>
+    <t>http://sigmatechnology.se/news/we-are-looking-for-masters-thesis-students/</t>
+  </si>
+  <si>
+    <t>http://www3.stratsys.se/sv/Om-stratsys/Karriar/</t>
+  </si>
+  <si>
+    <t> jobb@stratsys.se</t>
+  </si>
+  <si>
+    <t>Sent in</t>
+  </si>
+  <si>
+    <t>Ideation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,17 +222,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -276,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,19 +551,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,28 +577,28 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -578,207 +609,234 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
       <c r="K8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
       <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +856,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -815,7 +873,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Potential Companies.xlsx
+++ b/Potential Companies.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Company</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Applied</t>
   </si>
   <si>
-    <t>Machine learning for assessing information quality</t>
-  </si>
-  <si>
     <t>http://sigmatechnology.se/news/we-are-looking-for-masters-thesis-students/</t>
   </si>
   <si>
@@ -174,6 +171,12 @@
   </si>
   <si>
     <t>Ideation</t>
+  </si>
+  <si>
+    <t>Not possible</t>
+  </si>
+  <si>
+    <t>Not possible, sent email</t>
   </si>
 </sst>
 </file>
@@ -222,8 +225,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -238,17 +243,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -554,7 +561,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -618,7 +625,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -650,7 +657,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -673,10 +680,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
@@ -688,7 +695,7 @@
         <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -699,10 +706,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -717,7 +724,7 @@
         <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13">

--- a/Potential Companies.xlsx
+++ b/Potential Companies.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26122"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>Company</t>
   </si>
@@ -149,9 +149,6 @@
     <t>http://www.sp.se/en/workatsp/students/masterthesis/Sidor/STRATEGIESANDMETHODSFORSUSTAINABLEINNOVATIONANDTRANSFORMATION.aspx</t>
   </si>
   <si>
-    <t>What have we done?</t>
-  </si>
-  <si>
     <t>Sent mail, waiting for answer.</t>
   </si>
   <si>
@@ -177,12 +174,18 @@
   </si>
   <si>
     <t>Not possible, sent email</t>
+  </si>
+  <si>
+    <t>Skype-meeting scheduled.</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,16 +564,16 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,10 +605,10 @@
         <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -625,7 +628,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -634,10 +637,10 @@
         <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -657,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -669,7 +672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -680,10 +683,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
@@ -695,10 +698,10 @@
         <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -706,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -724,10 +727,10 @@
         <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -750,10 +753,10 @@
         <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -770,10 +773,10 @@
         <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="K8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -804,7 +810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -812,7 +818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -826,10 +832,10 @@
         <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -863,7 +869,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -880,7 +886,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Potential Companies.xlsx
+++ b/Potential Companies.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26122"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>Company</t>
   </si>
@@ -180,12 +180,15 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>deadline 24.nov</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,16 +567,16 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -640,7 +643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -671,8 +674,11 @@
       <c r="K3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -701,7 +707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -730,7 +736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -756,7 +762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -776,7 +782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -796,7 +802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -810,7 +816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -818,7 +824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -835,7 +841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -869,7 +875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -886,7 +892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Potential Companies.xlsx
+++ b/Potential Companies.xlsx
@@ -83,9 +83,6 @@
     <t>Market Research</t>
   </si>
   <si>
-    <t>http://www.cs.handels.gu.se/Portal/Career/PlacementAd/ShowPlacementAd.aspx?PlacementAdId=2313&amp;ExternalAd=0</t>
-  </si>
-  <si>
     <t>Requirement</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>deadline 24.nov</t>
+  </si>
+  <si>
+    <t>http://www.knowit.se/Karriar/Stockholm/Passionate-about-Strategy-with-curiosity-for-IT/</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -590,25 +590,25 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -625,22 +625,22 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -654,28 +654,28 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -689,117 +689,117 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
         <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -813,7 +813,7 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -821,7 +821,7 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -832,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -855,7 +855,7 @@
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
